--- a/data/trans_camb/P08_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P08_1_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>6.006797508820011</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.713878877620858</v>
+        <v>1.713878877620864</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.711078947026057</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.191590199838104</v>
+        <v>1.156017951068185</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.514480704706336</v>
+        <v>1.350762794658805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.569829129507095</v>
+        <v>2.405607245964202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.106646631919915</v>
+        <v>2.139001559510057</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9880445020662074</v>
+        <v>1.654412704143912</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.084518912660509</v>
+        <v>-1.972654896065563</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.80971218227462</v>
+        <v>2.927134121763092</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.552964700773807</v>
+        <v>2.420291080878819</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.32312751383073</v>
+        <v>1.295267506270983</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.29755472311456</v>
+        <v>8.815054716101205</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.609206342759119</v>
+        <v>8.598208984201882</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.485512546325262</v>
+        <v>9.864032285470028</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.75093676341658</v>
+        <v>11.23248659122249</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.90897510339516</v>
+        <v>10.6961027213268</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.805348019730447</v>
+        <v>5.607184702340999</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.716678697123474</v>
+        <v>8.778565922472135</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.285905067205377</v>
+        <v>8.118745994785433</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.494752117411727</v>
+        <v>6.49933491012806</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.2889082882645804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08243224648395574</v>
+        <v>0.082432246483956</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.3638141877660243</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.09482534526649004</v>
+        <v>0.09287623218909469</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1108099905102742</v>
+        <v>0.09750770269075147</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1932332603843415</v>
+        <v>0.1873092687657123</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08492177731209899</v>
+        <v>0.09665936754332081</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04093199168672907</v>
+        <v>0.07319253947367356</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09058590315924045</v>
+        <v>-0.08365394271075216</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1709754008015446</v>
+        <v>0.1721879429824201</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.148592742960693</v>
+        <v>0.145632852547347</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.07958935131105485</v>
+        <v>0.07332856655363172</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9478265868045307</v>
+        <v>0.9824104437980236</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9224699604232744</v>
+        <v>0.9096984241027576</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.057802933306331</v>
+        <v>1.069822237514626</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6477724867206869</v>
+        <v>0.6015958505859373</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5817035546108292</v>
+        <v>0.5831381259378223</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3262689897128701</v>
+        <v>0.3023234344337801</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6063776907524666</v>
+        <v>0.616270993017627</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5782309208855045</v>
+        <v>0.5635222756823451</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4504676486383694</v>
+        <v>0.4522026571511806</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>2.171862577038083</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.2627954884715927</v>
+        <v>0.26279548847159</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.980507249104873</v>
@@ -878,7 +878,7 @@
         <v>2.875867460556086</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1641812286437366</v>
+        <v>0.1641812286437339</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9726164479932884</v>
+        <v>1.606654849533545</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2758049922107162</v>
+        <v>0.5609487524905883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.839137118244421</v>
+        <v>-2.703956609788591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7595094142242855</v>
+        <v>-0.4246339256438024</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.556188556216738</v>
+        <v>-1.393288584911354</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.257151679507574</v>
+        <v>-3.161151009170295</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.48080398811331</v>
+        <v>1.526198579637292</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2366876141870602</v>
+        <v>0.4191303714332973</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.061974521906152</v>
+        <v>-1.979615691562937</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.795615580374493</v>
+        <v>7.828835095855484</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.544506671868803</v>
+        <v>6.374380656695476</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.775127687775681</v>
+        <v>2.930055904173045</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.015914303749766</v>
+        <v>7.164789152880878</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.059731347656182</v>
+        <v>5.977958059855507</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.514414389891872</v>
+        <v>3.397998269584342</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.259921535200173</v>
+        <v>6.516987439614202</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.18172047024631</v>
+        <v>5.509747200956577</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.212938884871767</v>
+        <v>2.48309881029959</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1020638717539262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01234973396404018</v>
+        <v>0.01234973396404005</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2446499670754935</v>
@@ -983,7 +983,7 @@
         <v>0.1767565879189767</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.01009090793419278</v>
+        <v>0.01009090793419261</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.0660159425735698</v>
+        <v>0.1142547078581383</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01864887820482555</v>
+        <v>0.04671252826014796</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.224753830479313</v>
+        <v>-0.2166249394995314</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03364646700312567</v>
+        <v>-0.01725501313828632</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.06895504161375679</v>
+        <v>-0.06432730493084583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1407346719052846</v>
+        <v>-0.1329232262233251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08556850679312643</v>
+        <v>0.08704737128858915</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0138934978600275</v>
+        <v>0.02437553626492613</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1164180502470379</v>
+        <v>-0.1137193762093305</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7790631385423249</v>
+        <v>0.7794542900705843</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6609206662226705</v>
+        <v>0.6736329926241063</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2855825557105215</v>
+        <v>0.2885022518518994</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3614662907215723</v>
+        <v>0.3675132875877654</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3132382298261178</v>
+        <v>0.310350357008121</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1836567501713985</v>
+        <v>0.1754220132670501</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4154886975907077</v>
+        <v>0.4338453535199236</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.343043111654838</v>
+        <v>0.3673199410612403</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1495054786572227</v>
+        <v>0.1648011192156003</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-3.610175743790184</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.315655087999561</v>
+        <v>-3.315655087999567</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.4450389899966406</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.667882037354968</v>
+        <v>-3.795405112413222</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.398659236096299</v>
+        <v>-2.961819111377511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.069954992077432</v>
+        <v>1.400053036773188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.264127191838616</v>
+        <v>-4.837399154287857</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-8.022950360837596</v>
+        <v>-8.133882488818413</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.09087829468413</v>
+        <v>-7.262568071649861</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.319240578425901</v>
+        <v>-3.394961511526168</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.155616500804419</v>
+        <v>-4.253621998280364</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.143088320209209</v>
+        <v>-1.59186413242189</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.705776507325177</v>
+        <v>3.678778369398566</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.93105881307725</v>
+        <v>4.387855565940042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.70568341713321</v>
+        <v>8.797872822388641</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.737412080313573</v>
+        <v>3.939680276669505</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8388505997780775</v>
+        <v>0.9336121959969133</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.154224942273544</v>
+        <v>0.9065032974747742</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.595406928470744</v>
+        <v>2.619118258837011</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.898239190070063</v>
+        <v>1.357202279447129</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.508118002368892</v>
+        <v>3.814054175845</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1478498161661553</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1357881250169973</v>
+        <v>-0.1357881250169975</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.02426795330851935</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2616009106557382</v>
+        <v>-0.2726531902664034</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.231942075946103</v>
+        <v>-0.2027258634555819</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.06934881326204446</v>
+        <v>0.1004690594252836</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1980580229668913</v>
+        <v>-0.1884083764512386</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2959932729691003</v>
+        <v>-0.3072441836842576</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2624667801841021</v>
+        <v>-0.2717241611731857</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1671856183256154</v>
+        <v>-0.1696710292732474</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2099178085224703</v>
+        <v>-0.2160850205085325</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1071376785019921</v>
+        <v>-0.0816535357145614</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3509369350913996</v>
+        <v>0.3685209198334747</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3571532216662359</v>
+        <v>0.4355758286257064</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8320352141589874</v>
+        <v>0.8539845864424677</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1666233225210967</v>
+        <v>0.1759834336134767</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.03823963086627886</v>
+        <v>0.03988709614363645</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05559790322521212</v>
+        <v>0.04308205519129361</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1549887238994163</v>
+        <v>0.1626799408559447</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.114452209408783</v>
+        <v>0.07759331691469076</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2025429123115008</v>
+        <v>0.2323887138078965</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.792776378461983</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.547307523052654</v>
+        <v>3.547307523052651</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.980580550387363</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7512355392539481</v>
+        <v>0.928580529604091</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9616604363317204</v>
+        <v>-0.9280290463292102</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6291577558428695</v>
+        <v>0.6782506994815811</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.221174507924423</v>
+        <v>2.259667363046403</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.067531475662534</v>
+        <v>-3.548487691145264</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.39622921345383</v>
+        <v>-0.006413486087212766</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.555893462332912</v>
+        <v>2.430833771450615</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.338340752783099</v>
+        <v>-1.373315632938894</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.255274689444462</v>
+        <v>1.365043190177481</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.064773653469121</v>
+        <v>7.076145725518257</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.60052553771321</v>
+        <v>4.645389570221201</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.530023599169986</v>
+        <v>6.458864502269165</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.667358950924376</v>
+        <v>9.611601080717175</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.061590467029117</v>
+        <v>4.079608599842759</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.928638306011282</v>
+        <v>6.67790800574558</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.533642939696223</v>
+        <v>7.412311733946493</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.426118690092265</v>
+        <v>3.439694904417962</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.899017660689843</v>
+        <v>5.693073001057727</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1671683531260917</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.330770509799576</v>
+        <v>0.3307705097995757</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2988459387390188</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06276213287816734</v>
+        <v>0.07492722700846995</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.08268921894073764</v>
+        <v>-0.08475753824479054</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.03822933379794768</v>
+        <v>0.05064704817457429</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.09262484825769596</v>
+        <v>0.1067044276076568</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1406431551097903</v>
+        <v>-0.163046900492952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01807562157181927</v>
+        <v>-0.001368253411633153</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1481412046603738</v>
+        <v>0.143980372501875</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07929073957770841</v>
+        <v>-0.0810401397319159</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.06872648617090744</v>
+        <v>0.07679870168355177</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7430095322268566</v>
+        <v>0.7490913572122531</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4797223492711394</v>
+        <v>0.4807361503542414</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6908914621192138</v>
+        <v>0.6822729343000721</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.516673458311628</v>
+        <v>0.5401417450291218</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2200315994563125</v>
+        <v>0.2312399978168137</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3876695040797755</v>
+        <v>0.3625207653872232</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5165004521453497</v>
+        <v>0.5114390613744275</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2361110407609672</v>
+        <v>0.2310350992587375</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4034641345887007</v>
+        <v>0.3855157810191021</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>1.964237871436852</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.098392847009869</v>
+        <v>2.098392847009872</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.870614298207875</v>
+        <v>1.793635508313365</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.218213653834329</v>
+        <v>1.164952044554186</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.687140932846958</v>
+        <v>1.801746153669706</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.88622361084698</v>
+        <v>1.814228962641038</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.7361144692326881</v>
+        <v>-0.9185335828231422</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.034572741684766</v>
+        <v>-1.044629077327845</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.290125045893292</v>
+        <v>2.380184458490433</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5403870411976334</v>
+        <v>0.6807015615886041</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.8447028919517883</v>
+        <v>0.9119493732875693</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.174611289620758</v>
+        <v>5.01427164282117</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.309751634230318</v>
+        <v>4.274384271709356</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.933363706558758</v>
+        <v>4.802916268836486</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.921663222715384</v>
+        <v>5.977092799030235</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.188523212162721</v>
+        <v>3.122258084761795</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.588186921019503</v>
+        <v>2.565124255643592</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.970261172936837</v>
+        <v>5.037992747903049</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.322880320113598</v>
+        <v>3.300435518600342</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.28630659688373</v>
+        <v>3.391439864316149</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.1199642633348291</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1281576716034245</v>
+        <v>0.1281576716034247</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1506401880637139</v>
+        <v>0.1509450971684382</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.09906521886930665</v>
+        <v>0.09751931337590304</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1409339484045917</v>
+        <v>0.1544434201945024</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.08584623878173687</v>
+        <v>0.08123778695158021</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03301091623800949</v>
+        <v>-0.04026690042005058</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.04325342672296761</v>
+        <v>-0.04632630423430335</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1356700326909001</v>
+        <v>0.1411654712682568</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0320343170668911</v>
+        <v>0.03878054939056728</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.04932899271490436</v>
+        <v>0.05369474429209225</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4932682181971345</v>
+        <v>0.4855687823783348</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4105694694037749</v>
+        <v>0.4102303557871918</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4747565233429919</v>
+        <v>0.470507628643606</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2926188685155316</v>
+        <v>0.2944334747410315</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1578506591713225</v>
+        <v>0.1535068809012028</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1270911138986057</v>
+        <v>0.1252753436092086</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3158062316598143</v>
+        <v>0.322721342908199</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.210319851802545</v>
+        <v>0.2063582558315963</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2074996697851625</v>
+        <v>0.2144777363270101</v>
       </c>
     </row>
     <row r="34">
